--- a/biology/Botanique/Cunninghamella/Cunninghamella.xlsx
+++ b/biology/Botanique/Cunninghamella/Cunninghamella.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cunninghamella est un genre de champignons trouvés dans les sols. Certaines espèces sont utilisées comme organisme modèle du métabolisme mammalien des xénobiotiques. Certaines sont des pathogènes opportunistes provoquant des mucormycoses chez l'homme. Certaines autres encore provoquent la pourritures de l'épi (mineures) (une maladie du maïs).
 </t>
@@ -511,7 +523,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Cunninghamella binarieae R.Y.Zheng 2001
 Cunninghamella blakesleeana 
